--- a/project-evaluation.xlsx
+++ b/project-evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\BLG317E-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102EA805-F0A1-4694-BE54-EB4F04E1470E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2A8B4F-5691-4B7A-A295-8A1537DC6B0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -288,9 +288,6 @@
     <t>Implemented live sorting</t>
   </si>
   <si>
-    <t>Included statistics</t>
-  </si>
-  <si>
     <t>Amazing Frontend</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Implemented scroll pagination due to the data being big . It was very hard</t>
+  </si>
+  <si>
+    <t>Included statistics by utilizing subqueries and functions and groupby</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1618,7 +1618,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="44" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>78</v>
@@ -1726,7 +1726,7 @@
         <v>81</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -1772,14 +1772,14 @@
     </row>
     <row r="48" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="8"/>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="49" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -1804,10 +1804,10 @@
     </row>
     <row r="50" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -2017,12 +2017,13 @@
       <c r="H86" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:I44"/>
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B48:E48"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/project-evaluation.xlsx
+++ b/project-evaluation.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db547a8f91ff07be/Desktop/University/semester 5/BLG 317E/BLG317E-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE75610F-2137-4B45-9E7E-AF8D97CA06A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{AE75610F-2137-4B45-9E7E-AF8D97CA06A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E391994-FB5C-4D2E-8906-2E6400AC4D75}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Member 1" sheetId="2" r:id="rId2"/>
     <sheet name="Member 2" sheetId="3" r:id="rId3"/>
     <sheet name="Member 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Member 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="206">
   <si>
     <t>TABLES</t>
   </si>
@@ -67,9 +68,6 @@
     <t>Managers</t>
   </si>
   <si>
-    <t>Table name</t>
-  </si>
-  <si>
     <t>MAIN TABLES</t>
   </si>
   <si>
@@ -503,17 +501,165 @@
   </si>
   <si>
     <t>Kanan Bandaliyev</t>
+  </si>
+  <si>
+    <t>Dana Al Jasem</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Bookings</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>match_name</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>knockout_stage</t>
+  </si>
+  <si>
+    <t>replayed</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>match_date</t>
+  </si>
+  <si>
+    <t>match_time</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>home_team_score</t>
+  </si>
+  <si>
+    <t>away_team_score</t>
+  </si>
+  <si>
+    <t>home_team_score_margin</t>
+  </si>
+  <si>
+    <t>away_team_score_margin</t>
+  </si>
+  <si>
+    <t>extra_time</t>
+  </si>
+  <si>
+    <t>penalty_shootout</t>
+  </si>
+  <si>
+    <t>score_penalties</t>
+  </si>
+  <si>
+    <t>home_team_score_penalties</t>
+  </si>
+  <si>
+    <t>away_team_score_penalties</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>home_team_win</t>
+  </si>
+  <si>
+    <t>away_team_win</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>stadium_id</t>
+  </si>
+  <si>
+    <t>stadiums</t>
+  </si>
+  <si>
+    <t>home_team_id</t>
+  </si>
+  <si>
+    <t>away_team_id</t>
+  </si>
+  <si>
+    <t>minute_label</t>
+  </si>
+  <si>
+    <t>minute_regulation</t>
+  </si>
+  <si>
+    <t>minute_stoppage</t>
+  </si>
+  <si>
+    <t>match_period</t>
+  </si>
+  <si>
+    <t>own_goal</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>goal_id</t>
+  </si>
+  <si>
+    <t>player_team_id</t>
+  </si>
+  <si>
+    <t>yellow_card</t>
+  </si>
+  <si>
+    <t>red_card</t>
+  </si>
+  <si>
+    <t>second_yellow_card</t>
+  </si>
+  <si>
+    <t>sending_off</t>
+  </si>
+  <si>
+    <t>booking_id</t>
+  </si>
+  <si>
+    <t>for validation I used the following: for reference keys I used selects in which the options are fetched from the database so the user can only select something that is already in the database, I made fields required, used patterns to ensure certain data is inputed in the correct way, used min and max values for integer input, and implemented functions that set certain fields according to what the user has put in previous field like which team won from the score.</t>
+  </si>
+  <si>
+    <t>very good frontend, no templates used</t>
+  </si>
+  <si>
+    <t>links to other places in the application</t>
+  </si>
+  <si>
+    <t>Frontend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,6 +762,19 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -652,18 +811,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,8 +829,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -703,34 +859,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -965,20 +1131,21 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="5">
         <v>150200919</v>
@@ -1009,14 +1176,14 @@
       <c r="D2" s="6">
         <v>150210909</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
+      <c r="E2" s="6">
+        <v>150210922</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -1025,16 +1192,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1213,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1225,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +1237,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1249,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1094,9 +1261,9 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1106,9 +1273,9 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1118,9 +1285,9 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1130,9 +1297,9 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1142,46 +1309,52 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
     </row>
   </sheetData>
@@ -1200,24 +1373,26 @@
   </sheetPr>
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -1228,7 +1403,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -1239,30 +1414,30 @@
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1273,396 +1448,396 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="B7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="13"/>
       <c r="D15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="12" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="13"/>
       <c r="G18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="13"/>
       <c r="D21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="13"/>
       <c r="D22" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1670,12 +1845,12 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1683,12 +1858,12 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1696,12 +1871,12 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -1709,12 +1884,12 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1722,12 +1897,12 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -1735,12 +1910,12 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1749,12 +1924,12 @@
       <c r="G34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1763,12 +1938,12 @@
       <c r="G35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -1777,12 +1952,12 @@
       <c r="G36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -1791,12 +1966,12 @@
       <c r="G37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -1805,12 +1980,12 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -1822,15 +1997,15 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -1839,7 +2014,7 @@
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -1850,12 +2025,12 @@
       <c r="J41" s="14"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -1865,15 +2040,15 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -1882,46 +2057,46 @@
       <c r="J43" s="14"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="12"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -1931,133 +2106,133 @@
       <c r="J46" s="14"/>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="12"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B50:D50"/>
@@ -2079,24 +2254,24 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A27" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -2107,7 +2282,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -2118,16 +2293,16 @@
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -2137,7 +2312,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2148,14 +2323,14 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -2163,107 +2338,107 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
@@ -2273,12 +2448,12 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -2288,12 +2463,12 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -2303,12 +2478,12 @@
       <c r="H13" s="15"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
@@ -2318,12 +2493,12 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="12"/>
@@ -2333,12 +2508,12 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12"/>
@@ -2348,7 +2523,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2358,14 +2533,14 @@
       <c r="H17" s="12"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="15"/>
       <c r="D18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="15"/>
@@ -2373,31 +2548,31 @@
       <c r="H18" s="12"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2407,82 +2582,82 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="12"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="13"/>
       <c r="D22" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2492,12 +2667,12 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="15"/>
@@ -2507,7 +2682,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="13"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2516,7 +2691,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="13"/>
@@ -2527,7 +2702,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
@@ -2538,7 +2713,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
@@ -2549,7 +2724,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="13"/>
@@ -2560,9 +2735,9 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2573,7 +2748,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2584,12 +2759,12 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2599,12 +2774,12 @@
       <c r="H34" s="15"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -2614,12 +2789,12 @@
       <c r="H35" s="15"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -2629,12 +2804,12 @@
       <c r="H36" s="15"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -2644,12 +2819,12 @@
       <c r="H37" s="15"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -2659,12 +2834,12 @@
       <c r="H38" s="13"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -2674,12 +2849,12 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -2689,12 +2864,12 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -2704,12 +2879,12 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -2719,12 +2894,12 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -2734,12 +2909,12 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -2749,12 +2924,12 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -2764,22 +2939,22 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -2790,7 +2965,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="15"/>
@@ -2801,40 +2976,40 @@
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -2845,7 +3020,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -2856,38 +3031,38 @@
       <c r="H53" s="13"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="13"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
     </row>
@@ -2912,23 +3087,25 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1"/>
+    <col min="1" max="1" width="21.54296875" bestFit="1"/>
+    <col min="2" max="2" width="21.7265625" bestFit="1"/>
+    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7265625" bestFit="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1"/>
     <col min="8" max="8" width="33" bestFit="1"/>
-    <col min="11" max="11" width="33.140625" bestFit="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1"/>
+    <col min="11" max="11" width="33.1796875" bestFit="1"/>
+    <col min="12" max="12" width="24.54296875" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
@@ -2939,7 +3116,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -2950,36 +3127,36 @@
       <c r="H2" s="19"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -2992,104 +3169,104 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="20"/>
       <c r="K5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="B7" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
       <c r="G7" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -3101,12 +3278,12 @@
       <c r="L9" s="19"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -3118,12 +3295,12 @@
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
@@ -3135,12 +3312,12 @@
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="19"/>
@@ -3152,12 +3329,12 @@
       <c r="L12" s="19"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="19"/>
@@ -3169,12 +3346,12 @@
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19"/>
@@ -3184,12 +3361,12 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="19"/>
@@ -3201,12 +3378,12 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="19"/>
@@ -3218,12 +3395,12 @@
       <c r="L16" s="19"/>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -3235,288 +3412,288 @@
       <c r="L17" s="19"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
       <c r="B21" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="M24" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="22"/>
       <c r="D26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="22"/>
       <c r="G26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="19"/>
       <c r="K26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="K27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>146</v>
-      </c>
       <c r="L27" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="K28" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="K31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="21" t="s">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="B36" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="K37" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L37" t="s">
         <v>151</v>
       </c>
-      <c r="K37" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="L37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="F38" s="20"/>
       <c r="H38" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L38" t="s">
         <v>153</v>
       </c>
-      <c r="L38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -3525,12 +3702,12 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -3540,12 +3717,12 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -3555,12 +3732,12 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -3570,12 +3747,12 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -3585,12 +3762,12 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -3600,12 +3777,12 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -3615,12 +3792,12 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -3630,12 +3807,12 @@
       <c r="H46" s="22"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -3645,12 +3822,12 @@
       <c r="H47" s="22"/>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -3660,12 +3837,12 @@
       <c r="H48" s="22"/>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -3675,12 +3852,12 @@
       <c r="H49" s="22"/>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -3690,12 +3867,12 @@
       <c r="H50" s="20"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -3705,12 +3882,12 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="29" t="s">
         <v>78</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>79</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -3720,7 +3897,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="20"/>
@@ -3731,12 +3908,12 @@
       <c r="H53" s="19"/>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -3746,12 +3923,12 @@
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -3761,12 +3938,12 @@
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
@@ -3776,22 +3953,22 @@
       <c r="H56" s="31"/>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -3801,24 +3978,24 @@
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>97</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="31"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>158</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="31"/>
@@ -3826,11 +4003,11 @@
       <c r="H60" s="19"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -3849,4 +4026,1111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F40EF4-CC46-4785-90E0-F466B591ED73}">
+  <dimension ref="A1:I77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="13"/>
+      <c r="G33" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="32"/>
+      <c r="F36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D40" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C61" s="13"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="F66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C69" s="15"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H73" s="13"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H74" s="13"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H75" s="13"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H76" s="13"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H77" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/project-evaluation.xlsx
+++ b/project-evaluation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db547a8f91ff07be/Desktop/University/semester 5/BLG 317E/BLG317E-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\BLG317E-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="233" documentId="13_ncr:1_{AE75610F-2137-4B45-9E7E-AF8D97CA06A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E391994-FB5C-4D2E-8906-2E6400AC4D75}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607145AA-0C54-4136-8E43-6D0646BDF390}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="13020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="210">
   <si>
     <t>TABLES</t>
   </si>
@@ -642,6 +642,18 @@
   </si>
   <si>
     <t>Frontend</t>
+  </si>
+  <si>
+    <t>MEMBER 4</t>
+  </si>
+  <si>
+    <t>MEMBER 5</t>
+  </si>
+  <si>
+    <t>Selectable Date</t>
+  </si>
+  <si>
+    <t>pick date input from calendar popup</t>
   </si>
 </sst>
 </file>
@@ -811,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -868,6 +880,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -892,11 +914,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1131,22 +1149,22 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1159,14 +1177,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>206</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
       <c r="B2" s="5">
         <v>150200919</v>
       </c>
@@ -1183,8 +1201,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1231,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1243,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1255,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1249,7 +1267,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +1279,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>113</v>
       </c>
@@ -1273,7 +1291,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>114</v>
       </c>
@@ -1285,7 +1303,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>115</v>
       </c>
@@ -1297,7 +1315,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>117</v>
       </c>
@@ -1309,7 +1327,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>160</v>
       </c>
@@ -1321,7 +1339,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>161</v>
       </c>
@@ -1333,7 +1351,7 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>162</v>
       </c>
@@ -1345,16 +1363,16 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
   </sheetData>
@@ -1373,24 +1391,24 @@
   </sheetPr>
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A26" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -1403,7 +1421,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -1414,7 +1432,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -1437,7 +1455,7 @@
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1448,7 +1466,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1483,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -1488,7 +1506,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
@@ -1511,7 +1529,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
@@ -1534,7 +1552,7 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
@@ -1553,7 +1571,7 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
@@ -1574,7 +1592,7 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>35</v>
       </c>
@@ -1597,7 +1615,7 @@
       </c>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>39</v>
       </c>
@@ -1620,7 +1638,7 @@
       </c>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
@@ -1637,7 +1655,7 @@
       <c r="F13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>46</v>
       </c>
@@ -1658,7 +1676,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="13"/>
       <c r="D15" s="12" t="s">
         <v>49</v>
@@ -1675,7 +1693,7 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>51</v>
       </c>
@@ -1698,7 +1716,7 @@
       </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>54</v>
       </c>
@@ -1712,7 +1730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>57</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
@@ -1750,8 +1768,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="13"/>
       <c r="D21" s="14" t="s">
         <v>51</v>
@@ -1767,7 +1785,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="13"/>
       <c r="D22" s="14" t="s">
         <v>54</v>
@@ -1783,7 +1801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
         <v>57</v>
@@ -1799,7 +1817,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
         <v>58</v>
@@ -1815,8 +1833,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>59</v>
       </c>
@@ -1825,14 +1843,14 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>60</v>
       </c>
@@ -1845,7 +1863,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>62</v>
       </c>
@@ -1858,7 +1876,7 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>64</v>
       </c>
@@ -1871,7 +1889,7 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>65</v>
       </c>
@@ -1884,7 +1902,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>66</v>
       </c>
@@ -1897,7 +1915,7 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>67</v>
       </c>
@@ -1910,7 +1928,7 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>68</v>
       </c>
@@ -1924,7 +1942,7 @@
       <c r="G34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>69</v>
       </c>
@@ -1938,7 +1956,7 @@
       <c r="G35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>70</v>
       </c>
@@ -1952,7 +1970,7 @@
       <c r="G36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>71</v>
       </c>
@@ -1966,7 +1984,7 @@
       <c r="G37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>73</v>
       </c>
@@ -1980,7 +1998,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>75</v>
       </c>
@@ -1997,15 +2015,15 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -2014,7 +2032,7 @@
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -2025,7 +2043,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>79</v>
       </c>
@@ -2040,15 +2058,15 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -2057,41 +2075,41 @@
       <c r="J43" s="14"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="12"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>87</v>
       </c>
@@ -2106,7 +2124,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>89</v>
       </c>
@@ -2118,22 +2136,22 @@
       <c r="J47" s="12"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>93</v>
       </c>
@@ -2143,96 +2161,102 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>209</v>
+      </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B50:D50"/>
@@ -2254,22 +2278,22 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -2282,7 +2306,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -2293,7 +2317,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -2312,7 +2336,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2323,7 +2347,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -2338,7 +2362,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>98</v>
       </c>
@@ -2357,7 +2381,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>99</v>
       </c>
@@ -2376,7 +2400,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>100</v>
       </c>
@@ -2395,7 +2419,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>101</v>
       </c>
@@ -2414,7 +2438,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>103</v>
       </c>
@@ -2433,7 +2457,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>105</v>
       </c>
@@ -2448,7 +2472,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>106</v>
       </c>
@@ -2463,7 +2487,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>107</v>
       </c>
@@ -2478,7 +2502,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>108</v>
       </c>
@@ -2493,7 +2517,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>109</v>
       </c>
@@ -2508,7 +2532,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>110</v>
       </c>
@@ -2523,7 +2547,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2533,7 +2557,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>33</v>
       </c>
@@ -2548,7 +2572,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>111</v>
       </c>
@@ -2567,7 +2591,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2582,7 +2606,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>43</v>
       </c>
@@ -2601,7 +2625,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="13"/>
       <c r="D22" s="14" t="s">
         <v>54</v>
@@ -2614,7 +2638,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>51</v>
       </c>
@@ -2633,7 +2657,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>54</v>
       </c>
@@ -2652,7 +2676,7 @@
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>57</v>
       </c>
@@ -2667,7 +2691,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>58</v>
       </c>
@@ -2682,7 +2706,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="13"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2691,7 +2715,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="13"/>
@@ -2702,7 +2726,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
@@ -2713,7 +2737,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
@@ -2724,7 +2748,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="13"/>
@@ -2735,7 +2759,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>59</v>
       </c>
@@ -2748,7 +2772,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2759,7 +2783,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>60</v>
       </c>
@@ -2774,7 +2798,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>62</v>
       </c>
@@ -2789,7 +2813,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>64</v>
       </c>
@@ -2804,7 +2828,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>65</v>
       </c>
@@ -2819,7 +2843,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>66</v>
       </c>
@@ -2834,7 +2858,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>67</v>
       </c>
@@ -2849,7 +2873,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>68</v>
       </c>
@@ -2864,7 +2888,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>69</v>
       </c>
@@ -2879,7 +2903,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>70</v>
       </c>
@@ -2894,7 +2918,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>71</v>
       </c>
@@ -2909,7 +2933,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>73</v>
       </c>
@@ -2924,7 +2948,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>75</v>
       </c>
@@ -2939,22 +2963,22 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -2965,7 +2989,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="15"/>
@@ -2976,40 +3000,40 @@
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -3020,7 +3044,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -3031,38 +3055,38 @@
       <c r="H53" s="13"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="13"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
     </row>
@@ -3087,23 +3111,23 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" bestFit="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1"/>
-    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" bestFit="1"/>
-    <col min="7" max="7" width="21.54296875" bestFit="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1"/>
     <col min="8" max="8" width="33" bestFit="1"/>
-    <col min="11" max="11" width="33.1796875" bestFit="1"/>
-    <col min="12" max="12" width="24.54296875" bestFit="1"/>
+    <col min="11" max="11" width="33.140625" bestFit="1"/>
+    <col min="12" max="12" width="24.5703125" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
@@ -3116,7 +3140,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -3127,7 +3151,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
@@ -3156,7 +3180,7 @@
       </c>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -3169,7 +3193,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
@@ -3190,7 +3214,7 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>118</v>
       </c>
@@ -3219,7 +3243,7 @@
       </c>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>123</v>
       </c>
@@ -3240,7 +3264,7 @@
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>126</v>
       </c>
@@ -3261,7 +3285,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>129</v>
       </c>
@@ -3278,7 +3302,7 @@
       <c r="L9" s="19"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -3295,7 +3319,7 @@
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -3312,7 +3336,7 @@
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>132</v>
       </c>
@@ -3329,7 +3353,7 @@
       <c r="L12" s="19"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>133</v>
       </c>
@@ -3346,7 +3370,7 @@
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>134</v>
       </c>
@@ -3361,7 +3385,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>135</v>
       </c>
@@ -3378,7 +3402,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -3395,7 +3419,7 @@
       <c r="L16" s="19"/>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -3412,7 +3436,7 @@
       <c r="L17" s="19"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -3421,7 +3445,7 @@
       </c>
       <c r="M18" s="22"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>139</v>
       </c>
@@ -3430,7 +3454,7 @@
       </c>
       <c r="M19" s="22"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>140</v>
       </c>
@@ -3439,7 +3463,7 @@
       </c>
       <c r="M20" s="22"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -3448,16 +3472,16 @@
       </c>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M24" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>33</v>
       </c>
@@ -3477,7 +3501,7 @@
       </c>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>39</v>
       </c>
@@ -3505,7 +3529,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -3525,7 +3549,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K29" t="s">
         <v>143</v>
       </c>
@@ -3533,7 +3557,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
         <v>46</v>
       </c>
@@ -3541,7 +3565,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
         <v>43</v>
       </c>
@@ -3549,7 +3573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>51</v>
       </c>
@@ -3577,7 +3601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>54</v>
       </c>
@@ -3605,7 +3629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>57</v>
       </c>
@@ -3633,7 +3657,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>58</v>
       </c>
@@ -3661,7 +3685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -3679,7 +3703,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>59</v>
       </c>
@@ -3693,7 +3717,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -3702,7 +3726,7 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>60</v>
       </c>
@@ -3717,7 +3741,7 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>62</v>
       </c>
@@ -3732,7 +3756,7 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>64</v>
       </c>
@@ -3747,7 +3771,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>65</v>
       </c>
@@ -3762,7 +3786,7 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>66</v>
       </c>
@@ -3777,7 +3801,7 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>67</v>
       </c>
@@ -3792,7 +3816,7 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>68</v>
       </c>
@@ -3807,7 +3831,7 @@
       <c r="H46" s="22"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>69</v>
       </c>
@@ -3822,7 +3846,7 @@
       <c r="H47" s="22"/>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>70</v>
       </c>
@@ -3837,7 +3861,7 @@
       <c r="H48" s="22"/>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>71</v>
       </c>
@@ -3852,7 +3876,7 @@
       <c r="H49" s="22"/>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>73</v>
       </c>
@@ -3867,7 +3891,7 @@
       <c r="H50" s="20"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>75</v>
       </c>
@@ -3882,22 +3906,22 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="20"/>
@@ -3908,7 +3932,7 @@
       <c r="H53" s="19"/>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>79</v>
       </c>
@@ -3923,37 +3947,37 @@
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>87</v>
       </c>
@@ -3963,7 +3987,7 @@
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>89</v>
       </c>
@@ -3978,36 +4002,36 @@
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
       <c r="H60" s="19"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -4032,21 +4056,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F40EF4-CC46-4785-90E0-F466B591ED73}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
@@ -4059,7 +4083,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -4070,7 +4094,7 @@
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -4081,19 +4105,19 @@
       <c r="D3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="25" t="s">
         <v>161</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="25" t="s">
         <v>162</v>
       </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -4104,7 +4128,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
@@ -4121,7 +4145,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>164</v>
       </c>
@@ -4129,14 +4153,14 @@
         <v>23</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -4144,7 +4168,7 @@
       </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>98</v>
       </c>
@@ -4152,10 +4176,10 @@
         <v>23</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="13"/>
@@ -4167,7 +4191,7 @@
       </c>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>165</v>
       </c>
@@ -4175,10 +4199,10 @@
         <v>23</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="25" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="13"/>
@@ -4190,22 +4214,22 @@
       </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="25" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="25" t="s">
         <v>189</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -4213,22 +4237,22 @@
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>166</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="25" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="25" t="s">
         <v>190</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -4236,22 +4260,22 @@
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>167</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="25" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="25" t="s">
         <v>191</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -4259,22 +4283,22 @@
       </c>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>168</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="25" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="25" t="s">
         <v>192</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -4282,22 +4306,22 @@
       </c>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="25" t="s">
         <v>197</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -4305,8 +4329,8 @@
       </c>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
         <v>170</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -4316,11 +4340,11 @@
       <c r="D14" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="25" t="s">
         <v>198</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -4328,8 +4352,8 @@
       </c>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>171</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -4339,7 +4363,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="25" t="s">
         <v>199</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -4347,18 +4371,18 @@
       </c>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="25" t="s">
         <v>200</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -4366,11 +4390,11 @@
       </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="32" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="13"/>
@@ -4381,11 +4405,11 @@
       <c r="H17" s="12"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="13"/>
@@ -4396,11 +4420,11 @@
       <c r="H18" s="12"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="13"/>
@@ -4411,8 +4435,8 @@
       <c r="H19" s="12"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="32" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -4426,8 +4450,8 @@
       <c r="H20" s="12"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -4441,8 +4465,8 @@
       <c r="H21" s="12"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
         <v>178</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -4456,11 +4480,11 @@
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="13"/>
@@ -4471,11 +4495,11 @@
       <c r="H23" s="12"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="13"/>
@@ -4486,8 +4510,8 @@
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>181</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -4501,8 +4525,8 @@
       <c r="H25" s="12"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>182</v>
       </c>
       <c r="B26" s="12" t="s">
@@ -4516,8 +4540,8 @@
       <c r="H26" s="12"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>183</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -4531,11 +4555,11 @@
       <c r="H27" s="12"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="13"/>
@@ -4546,7 +4570,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>33</v>
       </c>
@@ -4563,45 +4587,45 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="13"/>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="26" t="s">
         <v>36</v>
       </c>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="32" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="25" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F31" s="13"/>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="25" t="s">
         <v>39</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -4609,91 +4633,91 @@
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="25" t="s">
         <v>186</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="25" t="s">
         <v>56</v>
       </c>
       <c r="F32" s="13"/>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="25" t="s">
         <v>56</v>
       </c>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="32" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="32" t="s">
+      <c r="E33" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="13"/>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F34" s="13"/>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="25" t="s">
         <v>47</v>
       </c>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E35" s="32" t="s">
+      <c r="E35" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="13"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>51</v>
       </c>
@@ -4701,11 +4725,11 @@
         <v>52</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="32"/>
+      <c r="D36" s="25"/>
       <c r="F36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>54</v>
       </c>
@@ -4725,7 +4749,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>57</v>
       </c>
@@ -4735,17 +4759,17 @@
       <c r="D38" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="25" t="s">
         <v>52</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="32" t="s">
+      <c r="H38" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>58</v>
       </c>
@@ -4765,7 +4789,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D40" s="14" t="s">
         <v>58</v>
       </c>
@@ -4779,33 +4803,33 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>59</v>
       </c>
@@ -4816,7 +4840,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -4825,7 +4849,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>60</v>
       </c>
@@ -4838,11 +4862,11 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="13"/>
@@ -4851,11 +4875,11 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="13"/>
@@ -4864,7 +4888,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>65</v>
       </c>
@@ -4877,7 +4901,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>66</v>
       </c>
@@ -4890,7 +4914,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>67</v>
       </c>
@@ -4903,7 +4927,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>68</v>
       </c>
@@ -4918,11 +4942,11 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C55" s="13"/>
@@ -4933,7 +4957,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>70</v>
       </c>
@@ -4948,7 +4972,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>71</v>
       </c>
@@ -4963,7 +4987,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>73</v>
       </c>
@@ -4976,7 +5000,7 @@
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>75</v>
       </c>
@@ -4991,7 +5015,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>77</v>
       </c>
@@ -5006,7 +5030,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C61" s="13"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -5015,7 +5039,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>79</v>
       </c>
@@ -5028,11 +5052,11 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="27" t="s">
         <v>202</v>
       </c>
       <c r="C63" s="13"/>
@@ -5040,7 +5064,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>87</v>
       </c>
@@ -5054,7 +5078,7 @@
       <c r="H64" s="12"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>89</v>
       </c>
@@ -5065,7 +5089,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>91</v>
       </c>
@@ -5077,56 +5101,56 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="32" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="27" t="s">
         <v>203</v>
       </c>
       <c r="C67" s="15"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="27" t="s">
         <v>204</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C69" s="15"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H74" s="13"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H75" s="13"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H76" s="13"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H77" s="13"/>
     </row>
   </sheetData>

--- a/project-evaluation.xlsx
+++ b/project-evaluation.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ragib/Desktop/itudb2314/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE75610F-2137-4B45-9E7E-AF8D97CA06A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1BF9C0-D936-2A42-8803-00952C04EFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Member 1" sheetId="2" r:id="rId2"/>
     <sheet name="Member 2" sheetId="3" r:id="rId3"/>
     <sheet name="Member 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Member 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="192">
   <si>
     <t>TABLES</t>
   </si>
@@ -67,9 +68,6 @@
     <t>Managers</t>
   </si>
   <si>
-    <t>Table name</t>
-  </si>
-  <si>
     <t>MAIN TABLES</t>
   </si>
   <si>
@@ -503,13 +501,112 @@
   </si>
   <si>
     <t>Kanan Bandaliyev</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Team Appearances</t>
+  </si>
+  <si>
+    <t>Ragib Guliyev</t>
+  </si>
+  <si>
+    <t>team_appearances</t>
+  </si>
+  <si>
+    <t>team_name</t>
+  </si>
+  <si>
+    <t>team_code</t>
+  </si>
+  <si>
+    <t>mens_team</t>
+  </si>
+  <si>
+    <t>womens_team</t>
+  </si>
+  <si>
+    <t>federation_name</t>
+  </si>
+  <si>
+    <t>region_name</t>
+  </si>
+  <si>
+    <t>confederation_id</t>
+  </si>
+  <si>
+    <t>mens_team_wikipedia_link</t>
+  </si>
+  <si>
+    <t>womens_team_wikipedia_link</t>
+  </si>
+  <si>
+    <t>federation_wikipedia_link</t>
+  </si>
+  <si>
+    <t>Foreign key</t>
+  </si>
+  <si>
+    <t>opponent_id</t>
+  </si>
+  <si>
+    <t>goals_differential</t>
+  </si>
+  <si>
+    <t>extra_time</t>
+  </si>
+  <si>
+    <t>penalty_shootout</t>
+  </si>
+  <si>
+    <t>penalties_for</t>
+  </si>
+  <si>
+    <t>penalties_against</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>tournament_id, match_id, team_id</t>
+  </si>
+  <si>
+    <t>A search bar for Teams page to search for team names</t>
+  </si>
+  <si>
+    <t>Made statistics for Teams page</t>
+  </si>
+  <si>
+    <t>link to Statistics page</t>
+  </si>
+  <si>
+    <t>Used api to fetch flag images for teams</t>
+  </si>
+  <si>
+    <t>I believe you will like the thing with flags on the page</t>
+  </si>
+  <si>
+    <t>Flag Image-Api</t>
+  </si>
+  <si>
+    <t>MEMBER 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +713,95 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -652,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -709,19 +895,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -732,6 +921,44 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,21 +1192,21 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -991,15 +1218,15 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
+      <c r="E1" s="34" t="s">
+        <v>191</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
       <c r="B2" s="5">
         <v>150200919</v>
       </c>
@@ -1009,15 +1236,15 @@
       <c r="D2" s="6">
         <v>150210909</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>4</v>
+      <c r="E2" s="33">
+        <v>150210920</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1025,16 +1252,16 @@
         <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>158</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1273,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1058,7 +1285,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1070,7 +1297,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1082,7 +1309,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1094,9 +1321,9 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1106,9 +1333,9 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1118,9 +1345,9 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1130,58 +1357,59 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="46" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>14</v>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
     </row>
-    <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
     </row>
   </sheetData>
@@ -1200,24 +1428,24 @@
   </sheetPr>
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -1228,7 +1456,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -1239,30 +1467,30 @@
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1273,396 +1501,396 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="B7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="13"/>
       <c r="D15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="12" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="13"/>
       <c r="G18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="13"/>
       <c r="D21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="13"/>
       <c r="D22" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>60</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1670,12 +1898,12 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1683,12 +1911,12 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -1696,12 +1924,12 @@
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -1709,12 +1937,12 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -1722,12 +1950,12 @@
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -1735,12 +1963,12 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1749,12 +1977,12 @@
       <c r="G34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -1763,12 +1991,12 @@
       <c r="G35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -1777,12 +2005,12 @@
       <c r="G36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -1791,12 +2019,12 @@
       <c r="G37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -1805,12 +2033,12 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -1822,15 +2050,15 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -1839,7 +2067,7 @@
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -1850,12 +2078,12 @@
       <c r="J41" s="14"/>
       <c r="K41" s="12"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -1865,15 +2093,15 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -1882,46 +2110,46 @@
       <c r="J43" s="14"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="12"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -1931,133 +2159,133 @@
       <c r="J46" s="14"/>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="12"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>94</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>95</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="8:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B50:D50"/>
@@ -2079,24 +2307,26 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -2107,7 +2337,7 @@
       <c r="H1" s="12"/>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
@@ -2118,16 +2348,16 @@
       <c r="H2" s="12"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>13</v>
@@ -2137,7 +2367,7 @@
       <c r="H3" s="12"/>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -2148,14 +2378,14 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
@@ -2163,107 +2393,107 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
@@ -2273,12 +2503,12 @@
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -2288,12 +2518,12 @@
       <c r="H12" s="12"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -2303,12 +2533,12 @@
       <c r="H13" s="15"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
@@ -2318,12 +2548,12 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="12"/>
@@ -2333,12 +2563,12 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>26</v>
+        <v>110</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12"/>
@@ -2348,7 +2578,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2358,14 +2588,14 @@
       <c r="H17" s="12"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="15"/>
       <c r="D18" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="15"/>
@@ -2373,31 +2603,31 @@
       <c r="H18" s="12"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2407,82 +2637,82 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="14"/>
       <c r="H21" s="12"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="13"/>
       <c r="D22" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="14"/>
       <c r="H22" s="12"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="14"/>
       <c r="H23" s="12"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="14"/>
       <c r="H24" s="12"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2492,12 +2722,12 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="15"/>
@@ -2507,7 +2737,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="13"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2516,7 +2746,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="13"/>
@@ -2527,7 +2757,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="13"/>
@@ -2538,7 +2768,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="13"/>
@@ -2549,7 +2779,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="13"/>
@@ -2560,9 +2790,9 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2573,7 +2803,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2584,12 +2814,12 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -2599,12 +2829,12 @@
       <c r="H34" s="15"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -2614,12 +2844,12 @@
       <c r="H35" s="15"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -2629,12 +2859,12 @@
       <c r="H36" s="15"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -2644,12 +2874,12 @@
       <c r="H37" s="15"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -2659,12 +2889,12 @@
       <c r="H38" s="13"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -2674,12 +2904,12 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -2689,12 +2919,12 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -2704,12 +2934,12 @@
       <c r="H41" s="12"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
@@ -2719,12 +2949,12 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -2734,12 +2964,12 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
@@ -2749,12 +2979,12 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -2764,22 +2994,22 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -2790,7 +3020,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="15"/>
@@ -2801,40 +3031,40 @@
       <c r="H48" s="12"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -2845,7 +3075,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -2856,38 +3086,38 @@
       <c r="H53" s="13"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="13"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
     </row>
@@ -2912,23 +3142,25 @@
   </sheetPr>
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:I56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1"/>
     <col min="8" max="8" width="33" bestFit="1"/>
-    <col min="11" max="11" width="33.140625" bestFit="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1"/>
+    <col min="11" max="11" width="33.1640625" bestFit="1"/>
+    <col min="12" max="12" width="24.5" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20"/>
@@ -2939,7 +3171,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="21"/>
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
@@ -2950,36 +3182,36 @@
       <c r="H2" s="19"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>118</v>
-      </c>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -2992,104 +3224,104 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
       <c r="G5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="20"/>
       <c r="K5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="B7" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>125</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
       <c r="G7" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
       <c r="G8" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="19"/>
@@ -3101,12 +3333,12 @@
       <c r="L9" s="19"/>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -3118,12 +3350,12 @@
       <c r="L10" s="19"/>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="19"/>
@@ -3135,12 +3367,12 @@
       <c r="L11" s="19"/>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="19"/>
@@ -3152,12 +3384,12 @@
       <c r="L12" s="19"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="19"/>
@@ -3169,12 +3401,12 @@
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="19"/>
@@ -3184,12 +3416,12 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="19"/>
@@ -3201,12 +3433,12 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="19"/>
@@ -3218,12 +3450,12 @@
       <c r="L16" s="19"/>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -3235,288 +3467,288 @@
       <c r="L17" s="19"/>
       <c r="M17" s="22"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="22"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="M18" s="22"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="22"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="22"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
       <c r="B21" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M21" s="22"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M22" s="22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M23" s="22"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M24" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="22"/>
       <c r="D26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="22"/>
       <c r="G26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="19"/>
       <c r="K26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="K27" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>146</v>
-      </c>
       <c r="L27" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="K28" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L29" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L30" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31" s="22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="21" t="s">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="L33" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="B36" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="K37" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L37" t="s">
         <v>151</v>
       </c>
-      <c r="K37" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="L37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="F38" s="20"/>
       <c r="H38" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="L38" t="s">
         <v>153</v>
       </c>
-      <c r="L38" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -3525,12 +3757,12 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -3540,12 +3772,12 @@
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
@@ -3555,12 +3787,12 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20"/>
@@ -3570,12 +3802,12 @@
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
@@ -3585,12 +3817,12 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -3600,12 +3832,12 @@
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -3615,12 +3847,12 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -3630,12 +3862,12 @@
       <c r="H46" s="22"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -3645,12 +3877,12 @@
       <c r="H47" s="22"/>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -3660,12 +3892,12 @@
       <c r="H48" s="22"/>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -3675,12 +3907,12 @@
       <c r="H49" s="22"/>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>75</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -3690,12 +3922,12 @@
       <c r="H50" s="20"/>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -3705,22 +3937,22 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="20"/>
@@ -3731,12 +3963,12 @@
       <c r="H53" s="19"/>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -3746,52 +3978,52 @@
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
+        <v>81</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="22" t="s">
         <v>88</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>89</v>
       </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -3801,36 +4033,36 @@
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
       <c r="H60" s="19"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -3849,4 +4081,855 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310779C9-AAA1-BA43-A982-6D2A34CA4DDC}">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="15"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="13"/>
+      <c r="D24" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="15"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="15"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="15"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B47:D47"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>